--- a/data_raw/Weighingsheet.xlsx
+++ b/data_raw/Weighingsheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nineluijendijk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nineluijendijk/NIOOzoo/data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8BB2D0-B5E9-1F42-B957-17AB8E3E381D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF52A47-8071-E84F-A0EE-C92C85AA9B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14740" xr2:uid="{864AE45E-0836-6A4D-8D76-87141A61B3EF}"/>
   </bookViews>
@@ -440,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE40F9F-F16B-5D4A-8B5F-95F83460E23D}">
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:A65"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -683,21 +683,38 @@
         <v>37264</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>36801</v>
+      </c>
+      <c r="E14">
+        <v>41114</v>
+      </c>
+    </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>36801</v>
+        <v>37551</v>
       </c>
       <c r="E15">
-        <v>41114</v>
+        <v>42485</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -705,33 +722,33 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>37551</v>
+        <v>37362</v>
       </c>
       <c r="E16">
-        <v>42485</v>
+        <v>42684</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>37362</v>
+        <v>37332</v>
       </c>
       <c r="E17">
-        <v>42684</v>
+        <v>43621</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -739,16 +756,16 @@
         <v>14</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>37332</v>
+        <v>37657</v>
       </c>
       <c r="E18">
-        <v>43621</v>
+        <v>43860</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,33 +773,33 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>37657</v>
+        <v>37045</v>
       </c>
       <c r="E19">
-        <v>43860</v>
+        <v>43081</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>37045</v>
+        <v>37910</v>
       </c>
       <c r="E20">
-        <v>43081</v>
+        <v>42300</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -790,16 +807,16 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
       </c>
-      <c r="D21">
-        <v>37910</v>
-      </c>
-      <c r="E21">
-        <v>42300</v>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,33 +824,36 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
       </c>
-      <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
+      <c r="D22">
+        <v>37403</v>
+      </c>
+      <c r="E22">
+        <v>40065</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>37403</v>
+        <v>38196</v>
       </c>
       <c r="E23">
-        <v>40065</v>
+        <v>39419</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -841,19 +861,16 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>38196</v>
+        <v>37580</v>
       </c>
       <c r="E24">
-        <v>39419</v>
-      </c>
-      <c r="F24" t="s">
-        <v>10</v>
+        <v>37836</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -861,33 +878,50 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>37580</v>
+        <v>37288</v>
       </c>
       <c r="E25">
-        <v>37836</v>
+        <v>41152</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>37288</v>
+        <v>37571</v>
       </c>
       <c r="E26">
-        <v>41152</v>
+        <v>43084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>36513</v>
+      </c>
+      <c r="E27">
+        <v>41564</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -895,50 +929,50 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
       <c r="D28">
-        <v>37571</v>
+        <v>38098</v>
       </c>
       <c r="E28">
-        <v>43084</v>
+        <v>44004</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
       <c r="D29">
-        <v>36513</v>
+        <v>36997</v>
       </c>
       <c r="E29">
-        <v>41564</v>
+        <v>42556</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>38098</v>
+        <v>37025</v>
       </c>
       <c r="E30">
-        <v>44004</v>
+        <v>42242</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -946,50 +980,50 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
       <c r="D31">
-        <v>36997</v>
+        <v>36512</v>
       </c>
       <c r="E31">
-        <v>42556</v>
+        <v>41923</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>37025</v>
+        <v>37143</v>
       </c>
       <c r="E32">
-        <v>42242</v>
+        <v>41995</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
       </c>
       <c r="D33">
-        <v>36512</v>
+        <v>36467</v>
       </c>
       <c r="E33">
-        <v>41923</v>
+        <v>39911</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -997,50 +1031,50 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
       </c>
       <c r="D34">
-        <v>37143</v>
+        <v>37712</v>
       </c>
       <c r="E34">
-        <v>41995</v>
+        <v>41579</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
       <c r="D35">
-        <v>36467</v>
+        <v>38068</v>
       </c>
       <c r="E35">
-        <v>39911</v>
+        <v>38408</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36">
-        <v>37712</v>
+        <v>37627</v>
       </c>
       <c r="E36">
-        <v>41579</v>
+        <v>37963</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1048,55 +1082,72 @@
         <v>16</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
       <c r="D37">
-        <v>38068</v>
+        <v>36831</v>
       </c>
       <c r="E37">
-        <v>38408</v>
+        <v>37499</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38">
-        <v>37627</v>
+        <v>38129</v>
       </c>
       <c r="E38">
-        <v>37963</v>
+        <v>41214</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>36831</v>
+        <v>36895</v>
       </c>
       <c r="E39">
-        <v>37499</v>
+        <v>39661</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>37624</v>
+      </c>
+      <c r="E40">
+        <v>42095</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1105,15 +1156,15 @@
         <v>3</v>
       </c>
       <c r="D41">
-        <v>38129</v>
+        <v>38249</v>
       </c>
       <c r="E41">
-        <v>41214</v>
+        <v>43262</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1122,15 +1173,15 @@
         <v>3</v>
       </c>
       <c r="D42">
-        <v>36895</v>
+        <v>37215</v>
       </c>
       <c r="E42">
-        <v>39661</v>
+        <v>41685</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -1139,15 +1190,15 @@
         <v>3</v>
       </c>
       <c r="D43">
-        <v>37624</v>
+        <v>36098</v>
       </c>
       <c r="E43">
-        <v>42095</v>
+        <v>41061</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1156,15 +1207,15 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>38249</v>
+        <v>37353</v>
       </c>
       <c r="E44">
-        <v>43262</v>
+        <v>40979</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1173,15 +1224,18 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <v>37215</v>
+        <v>37816</v>
       </c>
       <c r="E45">
-        <v>41685</v>
+        <v>40743</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1190,15 +1244,15 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>36098</v>
+        <v>36751</v>
       </c>
       <c r="E46">
-        <v>41061</v>
+        <v>39622</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1207,15 +1261,15 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>37353</v>
+        <v>36977</v>
       </c>
       <c r="E47">
-        <v>40979</v>
+        <v>37081</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1224,18 +1278,15 @@
         <v>3</v>
       </c>
       <c r="D48">
-        <v>37816</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>40743</v>
-      </c>
-      <c r="F48" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -1244,264 +1295,213 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>36751</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>39622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
-        <v>36977</v>
+        <v>37042</v>
       </c>
       <c r="E50">
-        <v>37081</v>
+        <v>37529</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>38019</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>38852</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
       <c r="C52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>36873</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>41490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>38558</v>
+      </c>
+      <c r="E53">
+        <v>41467</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
       </c>
       <c r="D54">
-        <v>37042</v>
+        <v>35371</v>
       </c>
       <c r="E54">
-        <v>37529</v>
+        <v>39160</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>38019</v>
+        <v>37035</v>
       </c>
       <c r="E55">
-        <v>38852</v>
+        <v>40518</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="D56">
-        <v>36873</v>
+        <v>37132</v>
       </c>
       <c r="E56">
-        <v>41490</v>
+        <v>37140</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
       </c>
       <c r="D57">
-        <v>38558</v>
+        <v>36823</v>
       </c>
       <c r="E57">
-        <v>41467</v>
+        <v>37374</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
       </c>
       <c r="D58">
-        <v>35371</v>
+        <v>37177</v>
       </c>
       <c r="E58">
-        <v>39160</v>
+        <v>38693</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
       </c>
       <c r="D59">
-        <v>37035</v>
+        <v>37070</v>
       </c>
       <c r="E59">
-        <v>40518</v>
+        <v>37160</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="D60">
-        <v>37132</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>37140</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
       </c>
       <c r="D61">
-        <v>36823</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>37374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>4</v>
-      </c>
-      <c r="D62">
-        <v>37177</v>
-      </c>
-      <c r="E62">
-        <v>38693</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>16</v>
-      </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-      <c r="D63">
-        <v>37070</v>
-      </c>
-      <c r="E63">
-        <v>37160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>16</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-      <c r="C64" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>4</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65">
         <v>0</v>
       </c>
     </row>
